--- a/data/validation_combined.xlsx
+++ b/data/validation_combined.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liviosilva-muller/Documents/GitHub/amazondef/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD732B-FBF8-BB44-95E6-BD70F8E892D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D336A174-DC4F-9541-A2FB-DD706B5A3817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$215</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="543">
   <si>
     <t>ID</t>
   </si>
@@ -2106,9 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I156" sqref="I156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -2121,8 +2121,7 @@
     <col min="7" max="7" width="25.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="24" style="6" customWidth="1"/>
     <col min="9" max="9" width="32.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="6"/>
+    <col min="10" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="22" x14ac:dyDescent="0.2">
@@ -2227,7 +2226,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="88" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="110" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="308" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="330" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="198" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="220" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3111,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>110</v>
       </c>
@@ -4930,7 +4929,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="198" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="220" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>129</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="88" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="110" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>132</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>133</v>
       </c>
@@ -5503,7 +5502,9 @@
       <c r="H138" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I138" s="6"/>
+      <c r="I138" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
@@ -5527,7 +5528,9 @@
       <c r="H139" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I139" s="6"/>
+      <c r="I139" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="264" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
@@ -5574,7 +5577,9 @@
       <c r="H141" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I141" s="6"/>
+      <c r="I141" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="142" spans="1:9" ht="66" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
@@ -5624,7 +5629,9 @@
       <c r="H143" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I143" s="6"/>
+      <c r="I143" s="6" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
@@ -5648,7 +5655,9 @@
       <c r="H144" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I144" s="6"/>
+      <c r="I144" s="6" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="145" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
@@ -5672,7 +5681,9 @@
       <c r="H145" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I145" s="6"/>
+      <c r="I145" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
@@ -5693,7 +5704,9 @@
       <c r="H146" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I146" s="6"/>
+      <c r="I146" s="6" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -5714,7 +5727,9 @@
       <c r="H147" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I147" s="6"/>
+      <c r="I147" s="6" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="110" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
@@ -5793,7 +5808,9 @@
       <c r="H150" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I150" s="6"/>
+      <c r="I150" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
@@ -5818,7 +5835,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>152</v>
       </c>
@@ -5860,7 +5877,9 @@
       <c r="H153" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I153" s="6"/>
+      <c r="I153" s="6" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -5881,7 +5900,9 @@
       <c r="H154" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I154" s="6"/>
+      <c r="I154" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="22" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
@@ -5934,7 +5955,9 @@
       <c r="H156" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I156" s="6"/>
+      <c r="I156" s="7" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="242" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
@@ -5978,7 +6001,9 @@
       <c r="H158" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I158" s="6"/>
+      <c r="I158" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
@@ -5999,7 +6024,9 @@
       <c r="H159" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I159" s="6"/>
+      <c r="I159" s="6" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
@@ -6020,7 +6047,9 @@
       <c r="H160" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I160" s="6"/>
+      <c r="I160" s="6" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
@@ -6041,7 +6070,9 @@
       <c r="H161" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I161" s="6"/>
+      <c r="I161" s="6" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="162" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
@@ -6062,7 +6093,9 @@
       <c r="H162" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I162" s="6"/>
+      <c r="I162" s="6" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="163" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
@@ -6083,7 +6116,9 @@
       <c r="H163" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I163" s="6"/>
+      <c r="I163" s="6" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="164" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
@@ -6104,7 +6139,9 @@
       <c r="H164" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I164" s="6"/>
+      <c r="I164" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="165" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
@@ -6128,7 +6165,9 @@
       <c r="H165" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I165" s="6"/>
+      <c r="I165" s="6" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="166" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
@@ -6149,7 +6188,9 @@
       <c r="H166" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I166" s="6"/>
+      <c r="I166" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="167" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
@@ -6170,9 +6211,11 @@
       <c r="H167" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I167" s="6"/>
-    </row>
-    <row r="168" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="I167" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>168</v>
       </c>
@@ -6217,7 +6260,9 @@
       <c r="H169" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I169" s="6"/>
+      <c r="I169" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="170" spans="1:9" ht="88" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
@@ -6290,7 +6335,9 @@
       <c r="H172" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I172" s="6"/>
+      <c r="I172" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="173" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -6314,7 +6361,9 @@
       <c r="H173" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I173" s="6"/>
+      <c r="I173" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="174" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
@@ -6335,7 +6384,9 @@
       <c r="H174" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I174" s="6"/>
+      <c r="I174" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="175" spans="1:9" ht="66" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
@@ -6382,9 +6433,11 @@
       <c r="H176" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I176" s="6"/>
-    </row>
-    <row r="177" spans="1:9" ht="154" x14ac:dyDescent="0.2">
+      <c r="I176" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
@@ -6432,7 +6485,9 @@
       <c r="H178" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I178" s="6"/>
+      <c r="I178" s="6" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="179" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
@@ -6453,7 +6508,9 @@
       <c r="H179" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I179" s="6"/>
+      <c r="I179" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="180" spans="1:9" ht="220" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
@@ -6500,7 +6557,9 @@
       <c r="H181" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I181" s="6"/>
+      <c r="I181" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="182" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
@@ -6524,7 +6583,9 @@
       <c r="H182" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I182" s="6"/>
+      <c r="I182" s="6" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="183" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
@@ -6548,7 +6609,9 @@
       <c r="H183" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I183" s="6"/>
+      <c r="I183" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="184" spans="1:9" ht="88" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
@@ -6595,7 +6658,9 @@
       <c r="H185" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I185" s="6"/>
+      <c r="I185" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
@@ -6616,7 +6681,9 @@
       <c r="H186" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I186" s="6"/>
+      <c r="I186" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="187" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
@@ -6637,7 +6704,9 @@
       <c r="H187" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I187" s="6"/>
+      <c r="I187" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="188" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
@@ -6664,9 +6733,11 @@
       <c r="H188" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I188" s="6"/>
-    </row>
-    <row r="189" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="I188" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>189</v>
       </c>
@@ -6685,7 +6756,9 @@
       <c r="H189" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I189" s="6"/>
+      <c r="I189" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="190" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
@@ -6706,7 +6779,9 @@
       <c r="H190" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I190" s="6"/>
+      <c r="I190" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="191" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
@@ -6727,7 +6802,9 @@
       <c r="H191" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I191" s="6"/>
+      <c r="I191" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="192" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
@@ -6751,9 +6828,11 @@
       <c r="H192" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I192" s="6"/>
-    </row>
-    <row r="193" spans="1:9" ht="176" x14ac:dyDescent="0.2">
+      <c r="I192" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="198" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>193</v>
       </c>
@@ -6821,7 +6900,9 @@
       <c r="H195" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I195" s="6"/>
+      <c r="I195" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="196" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
@@ -6842,7 +6923,9 @@
       <c r="H196" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I196" s="6"/>
+      <c r="I196" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="197" spans="1:9" ht="66" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
@@ -6892,7 +6975,9 @@
       <c r="H198" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I198" s="6"/>
+      <c r="I198" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="199" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
@@ -6913,7 +6998,9 @@
       <c r="H199" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I199" s="6"/>
+      <c r="I199" s="6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="200" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
@@ -6934,7 +7021,9 @@
       <c r="H200" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I200" s="6"/>
+      <c r="I200" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="201" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
@@ -6958,7 +7047,9 @@
       <c r="H201" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I201" s="6"/>
+      <c r="I201" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="202" spans="1:9" ht="176" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
@@ -7005,7 +7096,9 @@
       <c r="H203" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I203" s="6"/>
+      <c r="I203" s="6" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="204" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
@@ -7029,7 +7122,9 @@
       <c r="H204" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I204" s="6"/>
+      <c r="I204" s="6" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="205" spans="1:9" ht="132" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
@@ -7076,7 +7171,9 @@
       <c r="H206" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I206" s="6"/>
+      <c r="I206" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="207" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
@@ -7097,9 +7194,11 @@
       <c r="H207" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I207" s="6"/>
-    </row>
-    <row r="208" spans="1:9" ht="88" x14ac:dyDescent="0.2">
+      <c r="I207" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="110" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
@@ -7147,7 +7246,9 @@
       <c r="H209" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I209" s="6"/>
+      <c r="I209" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="210" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
@@ -7220,7 +7321,9 @@
       <c r="H212" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I212" s="6"/>
+      <c r="I212" s="6" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="213" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
@@ -7244,7 +7347,9 @@
       <c r="H213" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I213" s="6"/>
+      <c r="I213" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="214" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -7268,7 +7373,9 @@
       <c r="H214" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I214" s="6"/>
+      <c r="I214" s="6" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="215" spans="1:9" ht="220" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
@@ -7297,7 +7404,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I215" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>